--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04612249041355704</v>
+        <v>0.03864900479865655</v>
       </c>
       <c r="C2">
-        <v>0.6122199845321671</v>
+        <v>0.5850438662025559</v>
       </c>
       <c r="D2">
-        <v>0.764335880259931</v>
+        <v>0.7245914535781601</v>
       </c>
       <c r="E2">
-        <v>0.8742630498081976</v>
+        <v>0.8512293777696821</v>
       </c>
       <c r="F2">
-        <v>0.8983564971161532</v>
+        <v>0.8736531364880852</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05484962023677387</v>
+        <v>-0.05426294671939138</v>
       </c>
       <c r="C3">
-        <v>0.550500397741624</v>
+        <v>0.5223775699184166</v>
       </c>
       <c r="D3">
-        <v>0.6319856702985275</v>
+        <v>0.5969843308118188</v>
       </c>
       <c r="E3">
-        <v>0.7949752639538714</v>
+        <v>0.7726476110179975</v>
       </c>
       <c r="F3">
-        <v>0.8174889991917688</v>
+        <v>0.7930847273798034</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04543164042376825</v>
+        <v>0.04121462200618248</v>
       </c>
       <c r="C4">
-        <v>0.4533281962039876</v>
+        <v>0.4282064007022935</v>
       </c>
       <c r="D4">
-        <v>0.4371070029802754</v>
+        <v>0.4114353831211015</v>
       </c>
       <c r="E4">
-        <v>0.6611406831985727</v>
+        <v>0.6414322903636061</v>
       </c>
       <c r="F4">
-        <v>0.6812090968495599</v>
+        <v>0.6598070052540843</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.16195197061802</v>
+        <v>0.1513232839577969</v>
       </c>
       <c r="C5">
-        <v>0.3783698352929975</v>
+        <v>0.3552284090837819</v>
       </c>
       <c r="D5">
-        <v>0.2480117391603534</v>
+        <v>0.2325151131945527</v>
       </c>
       <c r="E5">
-        <v>0.4980077701807005</v>
+        <v>0.4821982094476842</v>
       </c>
       <c r="F5">
-        <v>0.4874679092441003</v>
+        <v>0.4728538908111392</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1471864808748097</v>
+        <v>0.1388059945772336</v>
       </c>
       <c r="C6">
-        <v>0.4060740262783413</v>
+        <v>0.3804343702871964</v>
       </c>
       <c r="D6">
-        <v>0.2139496347759055</v>
+        <v>0.1997170828207708</v>
       </c>
       <c r="E6">
-        <v>0.4625469000824733</v>
+        <v>0.4468971725361113</v>
       </c>
       <c r="F6">
-        <v>0.4550571261459148</v>
+        <v>0.4397036079933307</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1698211554093815</v>
+        <v>0.1640011163335129</v>
       </c>
       <c r="C7">
-        <v>0.3504588829051084</v>
+        <v>0.3317361490081165</v>
       </c>
       <c r="D7">
-        <v>0.2295704431595503</v>
+        <v>0.2137299874398079</v>
       </c>
       <c r="E7">
-        <v>0.4791350990686763</v>
+        <v>0.4623094066096946</v>
       </c>
       <c r="F7">
-        <v>0.4663248008232967</v>
+        <v>0.4485592918475749</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1844777543612608</v>
+        <v>0.1805696058411114</v>
       </c>
       <c r="C8">
-        <v>0.349227456673245</v>
+        <v>0.3326462541290968</v>
       </c>
       <c r="D8">
-        <v>0.207296644967721</v>
+        <v>0.1927252227720784</v>
       </c>
       <c r="E8">
-        <v>0.4552984130959837</v>
+        <v>0.4390048095090513</v>
       </c>
       <c r="F8">
-        <v>0.4347596240100089</v>
+        <v>0.4164890877762218</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2035821763173961</v>
+        <v>0.217823495412195</v>
       </c>
       <c r="C9">
-        <v>0.3072749938937764</v>
+        <v>0.3128752448572103</v>
       </c>
       <c r="D9">
-        <v>0.2238619515805858</v>
+        <v>0.2168929369963322</v>
       </c>
       <c r="E9">
-        <v>0.4731405199098739</v>
+        <v>0.4657176580250443</v>
       </c>
       <c r="F9">
-        <v>0.4479485171011331</v>
+        <v>0.4299418927031617</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1565259920659335</v>
+        <v>0.1640088941767343</v>
       </c>
       <c r="C10">
-        <v>0.2762311327241536</v>
+        <v>0.2728317493205706</v>
       </c>
       <c r="D10">
-        <v>0.132530929537063</v>
+        <v>0.1256684404680174</v>
       </c>
       <c r="E10">
-        <v>0.3640479769715292</v>
+        <v>0.3544974477595254</v>
       </c>
       <c r="F10">
-        <v>0.3464591419631186</v>
+        <v>0.3296156480036049</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1105736843603382</v>
+        <v>0.1230033177014676</v>
       </c>
       <c r="C11">
-        <v>0.3275685352005838</v>
+        <v>0.3182986834576886</v>
       </c>
       <c r="D11">
-        <v>0.2709240469496699</v>
+        <v>0.2493480347795076</v>
       </c>
       <c r="E11">
-        <v>0.5205036473932435</v>
+        <v>0.499347609165707</v>
       </c>
       <c r="F11">
-        <v>0.5394763161494964</v>
+        <v>0.5101396525723122</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03864900479865655</v>
+        <v>-0.05426294671939138</v>
       </c>
       <c r="C2">
-        <v>0.5850438662025559</v>
+        <v>0.5223775699184166</v>
       </c>
       <c r="D2">
-        <v>0.7245914535781601</v>
+        <v>0.5969843308118188</v>
       </c>
       <c r="E2">
-        <v>0.8512293777696821</v>
+        <v>0.7726476110179975</v>
       </c>
       <c r="F2">
-        <v>0.8736531364880852</v>
+        <v>0.7930847273798034</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05426294671939138</v>
+        <v>0.04121462200618248</v>
       </c>
       <c r="C3">
-        <v>0.5223775699184166</v>
+        <v>0.4282064007022935</v>
       </c>
       <c r="D3">
-        <v>0.5969843308118188</v>
+        <v>0.4114353831211015</v>
       </c>
       <c r="E3">
-        <v>0.7726476110179975</v>
+        <v>0.6414322903636061</v>
       </c>
       <c r="F3">
-        <v>0.7930847273798034</v>
+        <v>0.6598070052540843</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04121462200618248</v>
+        <v>0.1513232839577969</v>
       </c>
       <c r="C4">
-        <v>0.4282064007022935</v>
+        <v>0.3552284090837819</v>
       </c>
       <c r="D4">
-        <v>0.4114353831211015</v>
+        <v>0.2325151131945527</v>
       </c>
       <c r="E4">
-        <v>0.6414322903636061</v>
+        <v>0.4821982094476842</v>
       </c>
       <c r="F4">
-        <v>0.6598070052540843</v>
+        <v>0.4728538908111392</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1513232839577969</v>
+        <v>0.1388059945772336</v>
       </c>
       <c r="C5">
-        <v>0.3552284090837819</v>
+        <v>0.3804343702871964</v>
       </c>
       <c r="D5">
-        <v>0.2325151131945527</v>
+        <v>0.1997170828207708</v>
       </c>
       <c r="E5">
-        <v>0.4821982094476842</v>
+        <v>0.4468971725361113</v>
       </c>
       <c r="F5">
-        <v>0.4728538908111392</v>
+        <v>0.4397036079933307</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1388059945772336</v>
+        <v>0.1640011163335129</v>
       </c>
       <c r="C6">
-        <v>0.3804343702871964</v>
+        <v>0.3317361490081165</v>
       </c>
       <c r="D6">
-        <v>0.1997170828207708</v>
+        <v>0.2137299874398079</v>
       </c>
       <c r="E6">
-        <v>0.4468971725361113</v>
+        <v>0.4623094066096946</v>
       </c>
       <c r="F6">
-        <v>0.4397036079933307</v>
+        <v>0.4485592918475749</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1640011163335129</v>
+        <v>0.1805696058411114</v>
       </c>
       <c r="C7">
-        <v>0.3317361490081165</v>
+        <v>0.3326462541290968</v>
       </c>
       <c r="D7">
-        <v>0.2137299874398079</v>
+        <v>0.1927252227720784</v>
       </c>
       <c r="E7">
-        <v>0.4623094066096946</v>
+        <v>0.4390048095090513</v>
       </c>
       <c r="F7">
-        <v>0.4485592918475749</v>
+        <v>0.4164890877762218</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1805696058411114</v>
+        <v>0.217823495412195</v>
       </c>
       <c r="C8">
-        <v>0.3326462541290968</v>
+        <v>0.3128752448572103</v>
       </c>
       <c r="D8">
-        <v>0.1927252227720784</v>
+        <v>0.2168929369963322</v>
       </c>
       <c r="E8">
-        <v>0.4390048095090513</v>
+        <v>0.4657176580250443</v>
       </c>
       <c r="F8">
-        <v>0.4164890877762218</v>
+        <v>0.4299418927031617</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.217823495412195</v>
+        <v>0.1640088941767343</v>
       </c>
       <c r="C9">
-        <v>0.3128752448572103</v>
+        <v>0.2728317493205706</v>
       </c>
       <c r="D9">
-        <v>0.2168929369963322</v>
+        <v>0.1256684404680174</v>
       </c>
       <c r="E9">
-        <v>0.4657176580250443</v>
+        <v>0.3544974477595254</v>
       </c>
       <c r="F9">
-        <v>0.4299418927031617</v>
+        <v>0.3296156480036049</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1640088941767343</v>
+        <v>0.1230033177014676</v>
       </c>
       <c r="C10">
-        <v>0.2728317493205706</v>
+        <v>0.3182986834576886</v>
       </c>
       <c r="D10">
-        <v>0.1256684404680174</v>
+        <v>0.2493480347795076</v>
       </c>
       <c r="E10">
-        <v>0.3544974477595254</v>
+        <v>0.499347609165707</v>
       </c>
       <c r="F10">
-        <v>0.3296156480036049</v>
+        <v>0.5101396525723122</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1230033177014676</v>
+        <v>0.1126358801864535</v>
       </c>
       <c r="C11">
-        <v>0.3182986834576886</v>
+        <v>0.3233852428189256</v>
       </c>
       <c r="D11">
-        <v>0.2493480347795076</v>
+        <v>0.2205083710885077</v>
       </c>
       <c r="E11">
-        <v>0.499347609165707</v>
+        <v>0.4695831886774778</v>
       </c>
       <c r="F11">
-        <v>0.5101396525723122</v>
+        <v>0.4835278903858824</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05426294671939138</v>
+        <v>0.03864900479865655</v>
       </c>
       <c r="C2">
-        <v>0.5223775699184166</v>
+        <v>0.5850438662025559</v>
       </c>
       <c r="D2">
-        <v>0.5969843308118188</v>
+        <v>0.7245914535781601</v>
       </c>
       <c r="E2">
-        <v>0.7726476110179975</v>
+        <v>0.8512293777696821</v>
       </c>
       <c r="F2">
-        <v>0.7930847273798034</v>
+        <v>0.8736531364880852</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04121462200618248</v>
+        <v>-0.05426294671939138</v>
       </c>
       <c r="C3">
-        <v>0.4282064007022935</v>
+        <v>0.5223775699184166</v>
       </c>
       <c r="D3">
-        <v>0.4114353831211015</v>
+        <v>0.5969843308118188</v>
       </c>
       <c r="E3">
-        <v>0.6414322903636061</v>
+        <v>0.7726476110179975</v>
       </c>
       <c r="F3">
-        <v>0.6598070052540843</v>
+        <v>0.7930847273798034</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1513232839577969</v>
+        <v>0.04121462200618248</v>
       </c>
       <c r="C4">
-        <v>0.3552284090837819</v>
+        <v>0.4282064007022935</v>
       </c>
       <c r="D4">
-        <v>0.2325151131945527</v>
+        <v>0.4114353831211015</v>
       </c>
       <c r="E4">
-        <v>0.4821982094476842</v>
+        <v>0.6414322903636061</v>
       </c>
       <c r="F4">
-        <v>0.4728538908111392</v>
+        <v>0.6598070052540843</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1388059945772336</v>
+        <v>0.1513232839577969</v>
       </c>
       <c r="C5">
-        <v>0.3804343702871964</v>
+        <v>0.3552284090837819</v>
       </c>
       <c r="D5">
-        <v>0.1997170828207708</v>
+        <v>0.2325151131945527</v>
       </c>
       <c r="E5">
-        <v>0.4468971725361113</v>
+        <v>0.4821982094476842</v>
       </c>
       <c r="F5">
-        <v>0.4397036079933307</v>
+        <v>0.4728538908111392</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1640011163335129</v>
+        <v>0.1388059945772336</v>
       </c>
       <c r="C6">
-        <v>0.3317361490081165</v>
+        <v>0.3804343702871964</v>
       </c>
       <c r="D6">
-        <v>0.2137299874398079</v>
+        <v>0.1997170828207708</v>
       </c>
       <c r="E6">
-        <v>0.4623094066096946</v>
+        <v>0.4468971725361113</v>
       </c>
       <c r="F6">
-        <v>0.4485592918475749</v>
+        <v>0.4397036079933307</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1805696058411114</v>
+        <v>0.1640011163335129</v>
       </c>
       <c r="C7">
-        <v>0.3326462541290968</v>
+        <v>0.3317361490081165</v>
       </c>
       <c r="D7">
-        <v>0.1927252227720784</v>
+        <v>0.2137299874398079</v>
       </c>
       <c r="E7">
-        <v>0.4390048095090513</v>
+        <v>0.4623094066096946</v>
       </c>
       <c r="F7">
-        <v>0.4164890877762218</v>
+        <v>0.4485592918475749</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.217823495412195</v>
+        <v>0.1805696058411114</v>
       </c>
       <c r="C8">
-        <v>0.3128752448572103</v>
+        <v>0.3326462541290968</v>
       </c>
       <c r="D8">
-        <v>0.2168929369963322</v>
+        <v>0.1927252227720784</v>
       </c>
       <c r="E8">
-        <v>0.4657176580250443</v>
+        <v>0.4390048095090513</v>
       </c>
       <c r="F8">
-        <v>0.4299418927031617</v>
+        <v>0.4164890877762218</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1640088941767343</v>
+        <v>0.217823495412195</v>
       </c>
       <c r="C9">
-        <v>0.2728317493205706</v>
+        <v>0.3128752448572103</v>
       </c>
       <c r="D9">
-        <v>0.1256684404680174</v>
+        <v>0.2168929369963322</v>
       </c>
       <c r="E9">
-        <v>0.3544974477595254</v>
+        <v>0.4657176580250443</v>
       </c>
       <c r="F9">
-        <v>0.3296156480036049</v>
+        <v>0.4299418927031617</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1230033177014676</v>
+        <v>0.1640088941767343</v>
       </c>
       <c r="C10">
-        <v>0.3182986834576886</v>
+        <v>0.2728317493205706</v>
       </c>
       <c r="D10">
-        <v>0.2493480347795076</v>
+        <v>0.1256684404680174</v>
       </c>
       <c r="E10">
-        <v>0.499347609165707</v>
+        <v>0.3544974477595254</v>
       </c>
       <c r="F10">
-        <v>0.5101396525723122</v>
+        <v>0.3296156480036049</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1126358801864535</v>
+        <v>0.1230033177014676</v>
       </c>
       <c r="C11">
-        <v>0.3233852428189256</v>
+        <v>0.3182986834576886</v>
       </c>
       <c r="D11">
-        <v>0.2205083710885077</v>
+        <v>0.2493480347795076</v>
       </c>
       <c r="E11">
-        <v>0.4695831886774778</v>
+        <v>0.499347609165707</v>
       </c>
       <c r="F11">
-        <v>0.4835278903858824</v>
+        <v>0.5101396525723122</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
